--- a/PeerEvaluationTemplate_7Person.xlsx
+++ b/PeerEvaluationTemplate_7Person.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Documents\RProjects\PeerEvalTeamplateCREATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Documents\GitProjects\PeerEvalTemplateCreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3EB3E1-64E4-46FF-BE3A-0362EE3AEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCAD783-95CA-45FB-A747-AB4897DB3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PeerRating" sheetId="1" r:id="rId1"/>
@@ -25,94 +25,94 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each each member including yourself)</t>
-  </si>
-  <si>
     <t>Having Relevant Knowledge, Skills, and Abilities (KSAs)</t>
+  </si>
+  <si>
+    <t>Contributing to the Team’s Work</t>
+  </si>
+  <si>
+    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
+3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
+1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
+  </si>
+  <si>
+    <t>Interacting with Teammates</t>
+  </si>
+  <si>
+    <t>Keeping the Team on Track</t>
+  </si>
+  <si>
+    <t>Expecting Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
+  </si>
+  <si>
+    <t>&lt;-- A1 Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-- B2 Person </t>
+  </si>
+  <si>
+    <t>&lt;-- C3 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- D4 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- E5 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- F6 Person</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>&lt;-- G7 Person</t>
   </si>
   <si>
     <t>5: Demonstrates KSAs to do excellent work, acquires new KSA to help team, can perform any role on team if necessary
 4: Between 5 above and 3 below
 3: Demonstrates sufficient KSA to contribute to team, acquires KSAs to meet requirements, able to perform other tasks
 2: Between 3 above and 1 below
-1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to peform any one elses duties</t>
-  </si>
-  <si>
-    <t>Contributing to the Team’s Work</t>
-  </si>
-  <si>
-    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
-3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
-1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
-  </si>
-  <si>
-    <t>Interacting with Teammates</t>
+1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to perform any one else's duties</t>
   </si>
   <si>
     <t>5: Is interested in teammates ideas and contributions, makes sure everyone is informed, is encouraging, enthusiastic and asks for feedback/suggestions
-3: Listens and respects teammate contributsions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
+3: Listens and respects teammate contributions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
 1: Interrupts, ignores, bosses, or makes fun, takes action without input, does not share, complains, makes excuses, does not interact, is defensive</t>
   </si>
   <si>
-    <t>Keeping the Team on Track</t>
-  </si>
-  <si>
     <t>5: Monitors teams' progress, makes sure teammates are progressing, gives specific, timely, and constructive feedback
-3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with sucess is threatened
+3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with success is threatened
 1: Unaware if team is meeting goals, does not pay attention to teammates progress, avoids discussing team problems even when obvious</t>
   </si>
   <si>
-    <t>Expecting Quality</t>
-  </si>
-  <si>
     <t>5: Motivates team to do excellent work, cares about excellent work even without reward, believes in team's ability to do excellent work
-3: Encouarges good work to meet requirements, believes team can meet its responsiblities
+3: Encourages good work to meet requirements, believes team can meet its responsibilities
 1: Satisfied even if not all requirements are met,  avoids work, doubts team can meet requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
-  </si>
-  <si>
-    <t>&lt;-- A1 Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- B2 Person </t>
-  </si>
-  <si>
-    <t>&lt;-- C3 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- D4 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- E5 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- F6 Person</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>&lt;-- G7 Person</t>
+    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each member including yourself)</t>
   </si>
 </sst>
 </file>
@@ -449,28 +449,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -479,13 +480,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -650,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,7 +806,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -832,7 +832,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -846,7 +846,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -860,7 +860,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="19"/>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="11"/>
@@ -874,7 +874,7 @@
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -888,9 +888,9 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="30"/>
       <c r="H6" s="13"/>
       <c r="I6" s="11"/>
     </row>
@@ -902,7 +902,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -914,12 +914,12 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,12 +929,12 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J9" s="24"/>
     </row>
@@ -945,12 +945,12 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="24"/>
     </row>
@@ -961,12 +961,12 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J11" s="24"/>
     </row>
@@ -977,12 +977,12 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J12" s="24"/>
     </row>
@@ -993,96 +993,96 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="32"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="32"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" t="s">
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="26"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="26"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34" t="s">
-        <v>26</v>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
